--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Tanga_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Tanga_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="1660" windowWidth="16660" windowHeight="14260" tabRatio="500" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="-26220" yWindow="-2960" windowWidth="16660" windowHeight="14260" tabRatio="500" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2916,12 +2911,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2937,7 +2932,7 @@
         <v>403678.63899533043</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2945,7 +2940,7 @@
         <v>81496.890284719615</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2948,7 @@
         <v>95822.941223378162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2961,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2969,7 +2964,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2981,6 +2976,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2992,12 +2992,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3603,6 +3603,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3614,13 +3619,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3637,7 +3642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -3656,7 +3661,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -3675,7 +3680,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -3694,7 +3699,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +3718,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -3732,7 +3737,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -3751,7 +3756,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
@@ -3770,7 +3775,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -3789,113 +3794,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3907,9 +3917,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3923,7 +3933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3939,6 +3949,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3948,12 +3963,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3973,7 +3988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3993,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4013,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4033,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4055,6 +4070,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4066,9 +4086,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4088,7 +4108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4110,6 +4130,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4121,9 +4146,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
@@ -4137,7 +4162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4153,6 +4178,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4164,12 +4194,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4189,7 +4219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4209,7 +4239,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4217,7 +4247,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4225,7 +4255,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4236,6 +4266,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4245,12 +4280,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4270,7 +4305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4290,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4310,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4330,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4352,6 +4387,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4361,13 +4401,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4387,7 +4427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4409,6 +4449,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4418,12 +4463,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4440,7 +4485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4457,14 +4502,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4473,6 +4518,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4484,13 +4534,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4498,7 +4548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4506,7 +4556,7 @@
         <v>83071.755000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4514,7 +4564,7 @@
         <v>84646.575000000012</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4522,7 +4572,7 @@
         <v>86615.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4530,7 +4580,7 @@
         <v>88189.920000000013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4538,7 +4588,7 @@
         <v>89764.74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4546,7 +4596,7 @@
         <v>91733.264999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4554,7 +4604,7 @@
         <v>93701.790000000008</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4562,7 +4612,7 @@
         <v>95276.61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4570,7 +4620,7 @@
         <v>97638.840000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4578,7 +4628,7 @@
         <v>99607.365000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4586,7 +4636,7 @@
         <v>101575.89000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4594,7 +4644,7 @@
         <v>103544.41500000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4602,7 +4652,7 @@
         <v>105906.645</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4612,6 +4662,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4619,11 +4674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4631,7 +4686,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4645,7 +4700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4662,7 +4717,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4679,7 +4734,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4693,7 +4748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4710,7 +4765,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4727,12 +4782,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="36">
-        <v>0</v>
+      <c r="B7" s="31">
+        <v>4.2698428783384215E-2</v>
       </c>
       <c r="C7" s="35">
         <v>0.95</v>
@@ -4744,72 +4799,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4817,6 +4872,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4824,9 +4884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4836,7 +4896,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4861,7 +4921,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4884,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4909,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4933,7 +4993,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4956,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4979,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5002,65 +5062,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5068,6 +5128,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5079,12 +5144,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5104,7 +5169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5124,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5143,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5163,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5180,14 +5245,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -5197,6 +5262,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5208,12 +5278,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5236,7 +5306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5259,7 +5329,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5279,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5302,7 +5372,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5326,6 +5396,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5337,12 +5412,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5365,7 +5440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5388,7 +5463,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5408,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5434,7 +5509,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5458,6 +5533,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5469,12 +5549,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5497,7 +5577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5520,7 +5600,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5540,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5566,7 +5646,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5590,6 +5670,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5601,9 +5686,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5614,7 +5699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="28">
         <v>23</v>
       </c>
@@ -5629,6 +5714,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5640,12 +5730,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5665,7 +5755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5685,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5705,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5725,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5745,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5765,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5785,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5805,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5825,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5845,7 +5935,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5865,7 +5955,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5885,7 +5975,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5905,7 +5995,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5925,7 +6015,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5945,7 +6035,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5965,7 +6055,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5985,7 +6075,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6012,6 +6102,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6023,9 +6118,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6048,7 +6143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6076,7 +6171,7 @@
         <v>19.033230500326169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6101,7 +6196,7 @@
         <v>35.874385778743594</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6121,7 +6216,7 @@
         <v>28.10400765255417</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6141,7 +6236,7 @@
         <v>16.988376068376066</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6164,7 +6259,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6184,7 +6279,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6204,7 +6299,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6224,7 +6319,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6247,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6267,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6287,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6315,6 +6410,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6326,9 +6426,9 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6339,7 +6439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>2.1074418604651163E-2</v>
       </c>
@@ -6352,6 +6452,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6363,9 +6468,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6385,7 +6490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6405,7 +6510,7 @@
         <v>1.0553516949152542</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6429,6 +6534,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6438,9 +6548,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6463,7 +6573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6486,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6506,7 +6616,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6526,7 +6636,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6546,7 +6656,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6569,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6589,7 +6699,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6609,7 +6719,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6629,7 +6739,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6652,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6672,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6692,7 +6802,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6712,7 +6822,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6735,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6755,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6775,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6795,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6818,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6838,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6858,7 +6968,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6880,6 +6990,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6889,9 +7004,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6914,7 +7029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6937,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6957,7 +7072,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6977,7 +7092,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6997,7 +7112,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7020,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7040,7 +7155,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7060,7 +7175,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7080,7 +7195,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7103,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7123,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7143,7 +7258,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7163,7 +7278,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7186,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7206,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7226,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7246,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7269,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7289,7 +7404,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7309,7 +7424,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7331,5 +7446,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>